--- a/links.xlsx
+++ b/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvynabranches/konkani_stt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CA5568-754A-C74F-A83B-DCF0E1F61E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30073927-C5A7-A74F-A9D2-AE8FB36FE639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3872,10 +3872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B588"/>
+  <dimension ref="A1:B590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="B576" sqref="B576"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="A590" sqref="A590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8205,9 +8205,6 @@
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A541" t="s">
-        <v>1091</v>
-      </c>
       <c r="B541" t="s">
         <v>1092</v>
       </c>
@@ -8357,9 +8354,6 @@
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A560" t="s">
-        <v>1129</v>
-      </c>
       <c r="B560" t="s">
         <v>1130</v>
       </c>
@@ -8550,6 +8544,16 @@
     <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>1034</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>1129</v>
       </c>
     </row>
   </sheetData>

--- a/links.xlsx
+++ b/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvynabranches/konkani_stt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30073927-C5A7-A74F-A9D2-AE8FB36FE639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08684EF-F3F4-0640-B137-7AE861E40DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="1165">
   <si>
     <t>link</t>
   </si>
@@ -3509,6 +3509,12 @@
   </si>
   <si>
     <t>punjabi_574</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pSPSnPfY4II</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=izE_VDVG1Qw</t>
   </si>
 </sst>
 </file>
@@ -3874,8 +3880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="A590" sqref="A590"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="A564" sqref="A564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8205,6 +8211,9 @@
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>1163</v>
+      </c>
       <c r="B541" t="s">
         <v>1092</v>
       </c>
@@ -8354,6 +8363,9 @@
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>1164</v>
+      </c>
       <c r="B560" t="s">
         <v>1130</v>
       </c>

--- a/links.xlsx
+++ b/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvynabranches/konkani_stt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08684EF-F3F4-0640-B137-7AE861E40DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD46140-133B-574F-AF2C-446754C56813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1177">
   <si>
     <t>link</t>
   </si>
@@ -3515,6 +3515,42 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=izE_VDVG1Qw</t>
+  </si>
+  <si>
+    <t>punjabi_580</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=He7u9RCK16Q</t>
+  </si>
+  <si>
+    <t>punjabi_579</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=awn9srdHpdY</t>
+  </si>
+  <si>
+    <t>punjabi_578</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vU_N6QK4Ees</t>
+  </si>
+  <si>
+    <t>punjabi_577</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0ZKJ8PnIkM0</t>
+  </si>
+  <si>
+    <t>punjabi_576</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9rt5lATUy3E</t>
+  </si>
+  <si>
+    <t>punjabi_575</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0nKqs_OliMA</t>
   </si>
 </sst>
 </file>
@@ -3878,10 +3914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B590"/>
+  <dimension ref="A1:B596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="A564" sqref="A564"/>
+    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
+      <selection activeCell="B583" sqref="B583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8498,79 +8534,127 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A578" t="s">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A579" t="s">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A580" t="s">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A581" t="s">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A582" t="s">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A583" t="s">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A584" t="s">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A585" t="s">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A586" t="s">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A587" t="s">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A588" t="s">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A589" t="s">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A590" t="s">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
         <v>1129</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B588">
-    <sortCondition ref="B2:B588"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B594">
+    <sortCondition ref="B2:B594"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/links.xlsx
+++ b/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvynabranches/konkani_stt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD46140-133B-574F-AF2C-446754C56813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BD3765-CA81-4443-AEE8-2DE440D2BDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="2024">
   <si>
     <t>link</t>
   </si>
@@ -3551,13 +3551,2554 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=0nKqs_OliMA</t>
+  </si>
+  <si>
+    <t>punjabi_780</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CcVOod23FEo</t>
+  </si>
+  <si>
+    <t>punjabi_779</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bx_PTMORoRA</t>
+  </si>
+  <si>
+    <t>punjabi_778</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3wS-ylHkav0</t>
+  </si>
+  <si>
+    <t>punjabi_777</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3fG5-DWPc-0</t>
+  </si>
+  <si>
+    <t>punjabi_776</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SkLW75wo23A</t>
+  </si>
+  <si>
+    <t>punjabi_775</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8QrahwAMNAk</t>
+  </si>
+  <si>
+    <t>punjabi_774</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zQ8bxrjjGrk</t>
+  </si>
+  <si>
+    <t>punjabi_773</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cv2K4j5Uado</t>
+  </si>
+  <si>
+    <t>punjabi_772</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MUf1j0p2AYU</t>
+  </si>
+  <si>
+    <t>punjabi_771</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uU0wPBPrf5k</t>
+  </si>
+  <si>
+    <t>punjabi_770</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d4ri8pI_Zow</t>
+  </si>
+  <si>
+    <t>punjabi_769</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0iBJRlpQPww</t>
+  </si>
+  <si>
+    <t>punjabi_768</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iSQCMauq8Kc</t>
+  </si>
+  <si>
+    <t>punjabi_767</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CRnLgtq7B_M</t>
+  </si>
+  <si>
+    <t>punjabi_766</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hGLeD3t8ldI</t>
+  </si>
+  <si>
+    <t>punjabi_765</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Vo2n2eNTCKA</t>
+  </si>
+  <si>
+    <t>punjabi_764</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DUlzlvXmtjY</t>
+  </si>
+  <si>
+    <t>punjabi_763</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OgztIq9UZoI</t>
+  </si>
+  <si>
+    <t>punjabi_762</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6MIt_-WIE8Q</t>
+  </si>
+  <si>
+    <t>punjabi_761</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DuXnn0v3stQ</t>
+  </si>
+  <si>
+    <t>punjabi_760</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6pCDMjt7Hfk</t>
+  </si>
+  <si>
+    <t>punjabi_759</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YogVTi7cH20</t>
+  </si>
+  <si>
+    <t>punjabi_758</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IwfcU8MZCuE</t>
+  </si>
+  <si>
+    <t>punjabi_757</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y_dmBqdHBeo</t>
+  </si>
+  <si>
+    <t>punjabi_756</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IlLDByRQ5FM</t>
+  </si>
+  <si>
+    <t>punjabi_755</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1Wo5FZcsbEs</t>
+  </si>
+  <si>
+    <t>punjabi_754</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sK4oEYsSFzA</t>
+  </si>
+  <si>
+    <t>punjabi_753</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pT0EOcva7rw</t>
+  </si>
+  <si>
+    <t>punjabi_752</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w4Vos3ZzgJ8</t>
+  </si>
+  <si>
+    <t>punjabi_751</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Nyv-9Rg50l0</t>
+  </si>
+  <si>
+    <t>punjabi_750</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uGnQDIcOdAM</t>
+  </si>
+  <si>
+    <t>punjabi_749</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yP2ViYHiW1E</t>
+  </si>
+  <si>
+    <t>punjabi_748</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fQ50dbgyO4o</t>
+  </si>
+  <si>
+    <t>punjabi_747</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rJTVBrVF3h0</t>
+  </si>
+  <si>
+    <t>punjabi_746</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mvzc8cgwuRk</t>
+  </si>
+  <si>
+    <t>punjabi_745</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zY0oBqu6pXk</t>
+  </si>
+  <si>
+    <t>punjabi_744</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eM8kkP-Oybk</t>
+  </si>
+  <si>
+    <t>punjabi_743</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9FWb6k8Jpk</t>
+  </si>
+  <si>
+    <t>punjabi_742</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kCPwU-47gjg</t>
+  </si>
+  <si>
+    <t>punjabi_741</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VCAZQvfI2nY</t>
+  </si>
+  <si>
+    <t>punjabi_740</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=26Tr9dfbwRI</t>
+  </si>
+  <si>
+    <t>punjabi_739</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QNTR8-pfKwk</t>
+  </si>
+  <si>
+    <t>punjabi_738</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6kcEfyIqvCA</t>
+  </si>
+  <si>
+    <t>punjabi_737</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9MFfOnc30-8</t>
+  </si>
+  <si>
+    <t>punjabi_736</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O8q-lrsU3Js</t>
+  </si>
+  <si>
+    <t>punjabi_735</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2Gm06wqmPHM</t>
+  </si>
+  <si>
+    <t>punjabi_734</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P-zqhgMNRuE</t>
+  </si>
+  <si>
+    <t>punjabi_733</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5bTT2ZGmFXA</t>
+  </si>
+  <si>
+    <t>punjabi_732</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Nsl4jd3wGd8</t>
+  </si>
+  <si>
+    <t>punjabi_731</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YAjt0JqXwoE</t>
+  </si>
+  <si>
+    <t>punjabi_730</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mHrBQR9g2HM</t>
+  </si>
+  <si>
+    <t>punjabi_729</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AzuyLEBVqaI</t>
+  </si>
+  <si>
+    <t>punjabi_728</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YzDO2VYGQmI</t>
+  </si>
+  <si>
+    <t>punjabi_727</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=48a_jv20J8Y</t>
+  </si>
+  <si>
+    <t>punjabi_726</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OUA2bI0rOBk</t>
+  </si>
+  <si>
+    <t>punjabi_725</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vyLSqML6Yac</t>
+  </si>
+  <si>
+    <t>punjabi_724</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Xrf2C0sb9RA</t>
+  </si>
+  <si>
+    <t>punjabi_723</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vRI6pfVz5Vc</t>
+  </si>
+  <si>
+    <t>punjabi_722</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SVHwZtBQCKw</t>
+  </si>
+  <si>
+    <t>punjabi_721</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BHb5CWzewes</t>
+  </si>
+  <si>
+    <t>punjabi_720</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kPTkYIM9Tio</t>
+  </si>
+  <si>
+    <t>punjabi_719</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lS-RNYcce_Y</t>
+  </si>
+  <si>
+    <t>punjabi_718</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SBZdknceX-Y</t>
+  </si>
+  <si>
+    <t>punjabi_717</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ClcTLhpeSzY</t>
+  </si>
+  <si>
+    <t>punjabi_716</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cs5V-9wtcRg</t>
+  </si>
+  <si>
+    <t>punjabi_715</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bSO1Nvw2dvU</t>
+  </si>
+  <si>
+    <t>punjabi_714</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kFdttYRtvSQ</t>
+  </si>
+  <si>
+    <t>punjabi_713</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Txpb88OrzhI</t>
+  </si>
+  <si>
+    <t>punjabi_712</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wB1gtE2zbrI</t>
+  </si>
+  <si>
+    <t>punjabi_711</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nnLqrp0DFhM</t>
+  </si>
+  <si>
+    <t>punjabi_710</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FrwFwaYJE9I</t>
+  </si>
+  <si>
+    <t>punjabi_709</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wupY6D80mHI</t>
+  </si>
+  <si>
+    <t>punjabi_708</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YJjBDSxhm6Q</t>
+  </si>
+  <si>
+    <t>punjabi_707</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SQ-zA6l1kkE</t>
+  </si>
+  <si>
+    <t>punjabi_706</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wGAZSi_7YoE</t>
+  </si>
+  <si>
+    <t>punjabi_705</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3M97-i9LL6w</t>
+  </si>
+  <si>
+    <t>punjabi_704</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eYfE6_DA9ko</t>
+  </si>
+  <si>
+    <t>punjabi_703</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xsy1H85uGZM</t>
+  </si>
+  <si>
+    <t>punjabi_702</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XEXy-cofF2Y</t>
+  </si>
+  <si>
+    <t>punjabi_701</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mta_JmKX3uQ</t>
+  </si>
+  <si>
+    <t>punjabi_700</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RwUV1C-Xfm8</t>
+  </si>
+  <si>
+    <t>punjabi_699</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fCpqf_hfgXo</t>
+  </si>
+  <si>
+    <t>punjabi_698</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZcoN3c53gLo</t>
+  </si>
+  <si>
+    <t>punjabi_697</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g6MjHnfmnRM</t>
+  </si>
+  <si>
+    <t>punjabi_696</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sq8-yxZBxnU</t>
+  </si>
+  <si>
+    <t>punjabi_695</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uG-3_ueYQdk</t>
+  </si>
+  <si>
+    <t>punjabi_694</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwVY6i709x4</t>
+  </si>
+  <si>
+    <t>punjabi_693</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mIR_s0E9aQ0</t>
+  </si>
+  <si>
+    <t>punjabi_692</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jWmwV-HUfqo</t>
+  </si>
+  <si>
+    <t>punjabi_691</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fFxx0wqxcGU</t>
+  </si>
+  <si>
+    <t>punjabi_690</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KDUSh0tfTL4</t>
+  </si>
+  <si>
+    <t>punjabi_689</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wgUPMCPdHgI</t>
+  </si>
+  <si>
+    <t>punjabi_688</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEbJoS7IC0I</t>
+  </si>
+  <si>
+    <t>punjabi_687</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P1Ds6IZraFk</t>
+  </si>
+  <si>
+    <t>punjabi_686</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T_D1OCfOT_Q</t>
+  </si>
+  <si>
+    <t>punjabi_685</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aBcoIDOrOXM</t>
+  </si>
+  <si>
+    <t>punjabi_684</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mEAAO9MP30c</t>
+  </si>
+  <si>
+    <t>punjabi_683</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5Jm9BWsceU0</t>
+  </si>
+  <si>
+    <t>punjabi_682</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p4FwD6EiFLE</t>
+  </si>
+  <si>
+    <t>punjabi_681</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jmHhDtc6DKE</t>
+  </si>
+  <si>
+    <t>punjabi_680</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vx698TFznjA</t>
+  </si>
+  <si>
+    <t>punjabi_679</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LfTXfEZ0dFE</t>
+  </si>
+  <si>
+    <t>punjabi_678</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=06I3C6Pz4Go</t>
+  </si>
+  <si>
+    <t>punjabi_677</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SmXHv6bUlYw</t>
+  </si>
+  <si>
+    <t>punjabi_676</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m0uW4WzNqEo</t>
+  </si>
+  <si>
+    <t>punjabi_675</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Nc4W5KFGfRo</t>
+  </si>
+  <si>
+    <t>punjabi_674</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hL1c0-9odyU</t>
+  </si>
+  <si>
+    <t>punjabi_673</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HIZURjSSR5M</t>
+  </si>
+  <si>
+    <t>punjabi_672</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AeLdwVCGfvA</t>
+  </si>
+  <si>
+    <t>punjabi_671</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t70acqWWuHA</t>
+  </si>
+  <si>
+    <t>punjabi_670</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zOfZCc2jjgk</t>
+  </si>
+  <si>
+    <t>punjabi_669</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vCNWOP7Tlxo</t>
+  </si>
+  <si>
+    <t>punjabi_668</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=afoViVd9yQY</t>
+  </si>
+  <si>
+    <t>punjabi_667</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5_etKQOsNZU</t>
+  </si>
+  <si>
+    <t>punjabi_666</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=exsYOWX9c7w</t>
+  </si>
+  <si>
+    <t>punjabi_665</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aZHc6C-PkA4</t>
+  </si>
+  <si>
+    <t>punjabi_664</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xR1WZU2bLcs</t>
+  </si>
+  <si>
+    <t>punjabi_663</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KacKeNTbm74</t>
+  </si>
+  <si>
+    <t>punjabi_662</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0hRk7Il1oj0</t>
+  </si>
+  <si>
+    <t>punjabi_661</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fr8Z34FJpuQ</t>
+  </si>
+  <si>
+    <t>punjabi_660</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xL-eak_omvI</t>
+  </si>
+  <si>
+    <t>punjabi_659</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fv33XUpIcD0</t>
+  </si>
+  <si>
+    <t>punjabi_658</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qg9uXNOLuh0</t>
+  </si>
+  <si>
+    <t>punjabi_657</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RkwtsDUUGIA</t>
+  </si>
+  <si>
+    <t>punjabi_656</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vdOHzlSpYzo</t>
+  </si>
+  <si>
+    <t>punjabi_655</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=icB9d-DG_28</t>
+  </si>
+  <si>
+    <t>punjabi_654</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bJ3Bjq0w1Dw</t>
+  </si>
+  <si>
+    <t>punjabi_653</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Xegi7-zrX7U</t>
+  </si>
+  <si>
+    <t>punjabi_652</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hS_-zNHRMoE</t>
+  </si>
+  <si>
+    <t>punjabi_651</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LjIOdOUqdV4</t>
+  </si>
+  <si>
+    <t>punjabi_650</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gt_hA1yLHBw</t>
+  </si>
+  <si>
+    <t>punjabi_649</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sOVNHbrNSqw</t>
+  </si>
+  <si>
+    <t>punjabi_648</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sP4UrnI0sDg</t>
+  </si>
+  <si>
+    <t>punjabi_647</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=65s3p8CZxBU</t>
+  </si>
+  <si>
+    <t>punjabi_646</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nUJViX1BOiY</t>
+  </si>
+  <si>
+    <t>punjabi_645</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZL64ggecY08</t>
+  </si>
+  <si>
+    <t>punjabi_644</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IiGDGCD6YG4</t>
+  </si>
+  <si>
+    <t>punjabi_643</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=quPMeLOSn9k</t>
+  </si>
+  <si>
+    <t>punjabi_642</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BAZSuPS-hTk</t>
+  </si>
+  <si>
+    <t>punjabi_641</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=erPzIB-079M</t>
+  </si>
+  <si>
+    <t>punjabi_640</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BpuvYQ_GKWk</t>
+  </si>
+  <si>
+    <t>punjabi_639</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TGZ-QvAZ1OQ</t>
+  </si>
+  <si>
+    <t>punjabi_638</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HkOEYJVhrA0</t>
+  </si>
+  <si>
+    <t>punjabi_637</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fbq-i0LPZ18</t>
+  </si>
+  <si>
+    <t>punjabi_636</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R3K_wZYuEdg</t>
+  </si>
+  <si>
+    <t>punjabi_635</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9WkIJpwQPgo</t>
+  </si>
+  <si>
+    <t>punjabi_634</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7nZISoEyVlM</t>
+  </si>
+  <si>
+    <t>punjabi_633</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P2oiLu035v4</t>
+  </si>
+  <si>
+    <t>punjabi_632</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vur3vkEQchI</t>
+  </si>
+  <si>
+    <t>punjabi_631</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ylQ85SejnR8</t>
+  </si>
+  <si>
+    <t>punjabi_630</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jUtnX5vAcMY</t>
+  </si>
+  <si>
+    <t>punjabi_629</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wTXgyKM9i-0</t>
+  </si>
+  <si>
+    <t>punjabi_628</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kpCHx3Cby3I</t>
+  </si>
+  <si>
+    <t>punjabi_627</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bs_O4KMdqf0</t>
+  </si>
+  <si>
+    <t>punjabi_626</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tSmvUg1UZRw</t>
+  </si>
+  <si>
+    <t>punjabi_625</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=paZJE3eCfJI</t>
+  </si>
+  <si>
+    <t>punjabi_624</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0AujPYR4qGg</t>
+  </si>
+  <si>
+    <t>punjabi_623</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aYuU-vArIMM</t>
+  </si>
+  <si>
+    <t>punjabi_622</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jS4ROrbovsw</t>
+  </si>
+  <si>
+    <t>punjabi_621</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ILGMMoCAkzM</t>
+  </si>
+  <si>
+    <t>punjabi_620</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wv2YXjn71_U</t>
+  </si>
+  <si>
+    <t>punjabi_619</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sxK0BlxKCb4</t>
+  </si>
+  <si>
+    <t>punjabi_618</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=202JZSaKtKU</t>
+  </si>
+  <si>
+    <t>punjabi_617</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k8kfVVK9frQ</t>
+  </si>
+  <si>
+    <t>punjabi_616</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=05Ooluuze6k</t>
+  </si>
+  <si>
+    <t>punjabi_615</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w_VZYQR6W3M</t>
+  </si>
+  <si>
+    <t>punjabi_614</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8KAC1Uob9LE</t>
+  </si>
+  <si>
+    <t>punjabi_613</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oViIlwP8CtE</t>
+  </si>
+  <si>
+    <t>punjabi_612</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J08C3JmbCOo</t>
+  </si>
+  <si>
+    <t>punjabi_611</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oyBTqG61NRg</t>
+  </si>
+  <si>
+    <t>punjabi_610</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0GiG_YogrTM</t>
+  </si>
+  <si>
+    <t>punjabi_609</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3HQehHT9cvo</t>
+  </si>
+  <si>
+    <t>punjabi_608</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G5c9oDeBxBc</t>
+  </si>
+  <si>
+    <t>punjabi_607</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y3qJ7zhKfzA</t>
+  </si>
+  <si>
+    <t>punjabi_606</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=be7FRP49OVg</t>
+  </si>
+  <si>
+    <t>punjabi_605</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uTaaDYf4hwM</t>
+  </si>
+  <si>
+    <t>punjabi_604</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LApiC1sz70E</t>
+  </si>
+  <si>
+    <t>punjabi_603</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L2NuWWWZNHk</t>
+  </si>
+  <si>
+    <t>punjabi_602</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YvOFVhaZgFU</t>
+  </si>
+  <si>
+    <t>punjabi_601</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YGzCgyqCoaA</t>
+  </si>
+  <si>
+    <t>punjabi_600</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lvovv3LLCP0</t>
+  </si>
+  <si>
+    <t>punjabi_599</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LXOK2i7Nah8</t>
+  </si>
+  <si>
+    <t>punjabi_598</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v6P0t2HzxzQ</t>
+  </si>
+  <si>
+    <t>punjabi_597</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nkl1GWdZEzc</t>
+  </si>
+  <si>
+    <t>punjabi_596</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FkSPYgtriFs</t>
+  </si>
+  <si>
+    <t>punjabi_595</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rfudDFAaS5I</t>
+  </si>
+  <si>
+    <t>punjabi_594</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=00CcKuZEDKI</t>
+  </si>
+  <si>
+    <t>punjabi_593</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TmDu_5GKHCM</t>
+  </si>
+  <si>
+    <t>punjabi_592</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0qt2lggA1cY</t>
+  </si>
+  <si>
+    <t>punjabi_591</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8oXiB_aWSiY</t>
+  </si>
+  <si>
+    <t>punjabi_590</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WJiCig9X-J0</t>
+  </si>
+  <si>
+    <t>punjabi_589</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YmOq3rlzQN4</t>
+  </si>
+  <si>
+    <t>punjabi_588</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g7D_s-eLK_I</t>
+  </si>
+  <si>
+    <t>punjabi_587</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rdXn8v0y7AA</t>
+  </si>
+  <si>
+    <t>punjabi_586</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=63e_CcyaRAk</t>
+  </si>
+  <si>
+    <t>punjabi_585</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Au_pOISgZjk</t>
+  </si>
+  <si>
+    <t>punjabi_584</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yH1rWlMYEOo</t>
+  </si>
+  <si>
+    <t>punjabi_583</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j_gD-IwJcf8</t>
+  </si>
+  <si>
+    <t>punjabi_582</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ImYfp79H5oY</t>
+  </si>
+  <si>
+    <t>punjabi_581</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xT7dQpU0ZKg</t>
+  </si>
+  <si>
+    <t>punjabi_900</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T-llpmVBg7s</t>
+  </si>
+  <si>
+    <t>punjabi_899</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kbAwkwpQz0k</t>
+  </si>
+  <si>
+    <t>punjabi_898</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LknQ4fJ0-Fs</t>
+  </si>
+  <si>
+    <t>punjabi_897</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4wuYUHfSmss</t>
+  </si>
+  <si>
+    <t>punjabi_896</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6qbh3lnunKs</t>
+  </si>
+  <si>
+    <t>punjabi_895</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nGi0sa9y10s</t>
+  </si>
+  <si>
+    <t>punjabi_894</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uRtZXxFGSVU</t>
+  </si>
+  <si>
+    <t>punjabi_893</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z_K2wF0gunE</t>
+  </si>
+  <si>
+    <t>punjabi_892</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8a8R6mc-3Bc</t>
+  </si>
+  <si>
+    <t>punjabi_891</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wP947CmBI0c</t>
+  </si>
+  <si>
+    <t>punjabi_890</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FDK_TGffgdc</t>
+  </si>
+  <si>
+    <t>punjabi_889</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1YDboTkq1kY</t>
+  </si>
+  <si>
+    <t>punjabi_888</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XCG-f3zok1s</t>
+  </si>
+  <si>
+    <t>punjabi_887</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yZhXE79AFB4</t>
+  </si>
+  <si>
+    <t>punjabi_886</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dtPcOXS8xO0</t>
+  </si>
+  <si>
+    <t>punjabi_885</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3p672M5xznY</t>
+  </si>
+  <si>
+    <t>punjabi_884</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oLzpCoa6mo8</t>
+  </si>
+  <si>
+    <t>punjabi_883</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qvcNcPOahA0</t>
+  </si>
+  <si>
+    <t>punjabi_882</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OYb7C8Gz6AM</t>
+  </si>
+  <si>
+    <t>punjabi_881</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5qHpyNY2MGA</t>
+  </si>
+  <si>
+    <t>punjabi_880</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgAbRygA-F4</t>
+  </si>
+  <si>
+    <t>punjabi_879</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MWZhTmfdFx0</t>
+  </si>
+  <si>
+    <t>punjabi_878</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9fXHnbFF5f4</t>
+  </si>
+  <si>
+    <t>punjabi_877</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=khf_B34-dIk</t>
+  </si>
+  <si>
+    <t>punjabi_876</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aWnxbBHDxFI</t>
+  </si>
+  <si>
+    <t>punjabi_875</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nomh5Cvoyok</t>
+  </si>
+  <si>
+    <t>punjabi_874</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FjbdeqJ0VbU</t>
+  </si>
+  <si>
+    <t>punjabi_873</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DvlnkFnHMDg</t>
+  </si>
+  <si>
+    <t>punjabi_872</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EzR0HVR1a7k</t>
+  </si>
+  <si>
+    <t>punjabi_871</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6UiGyfSdvfw</t>
+  </si>
+  <si>
+    <t>punjabi_870</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W5ku2s-tC-Q</t>
+  </si>
+  <si>
+    <t>punjabi_869</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vExFeODCTxA</t>
+  </si>
+  <si>
+    <t>punjabi_868</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3urjFMbsDSM</t>
+  </si>
+  <si>
+    <t>punjabi_867</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=njVN9z-6a7U</t>
+  </si>
+  <si>
+    <t>punjabi_866</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1d0666e9bI8</t>
+  </si>
+  <si>
+    <t>punjabi_865</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Vy-CHN50PHs</t>
+  </si>
+  <si>
+    <t>punjabi_864</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u1coNCapgHU</t>
+  </si>
+  <si>
+    <t>punjabi_863</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-BhXPFP8Qa0</t>
+  </si>
+  <si>
+    <t>punjabi_862</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2jHCiP-dmMk</t>
+  </si>
+  <si>
+    <t>punjabi_861</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_cCA8QniZ_A</t>
+  </si>
+  <si>
+    <t>punjabi_860</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wfxwkw8w66Q</t>
+  </si>
+  <si>
+    <t>punjabi_859</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P3BuNg9wBOw</t>
+  </si>
+  <si>
+    <t>punjabi_858</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L2H4YQDN1A0</t>
+  </si>
+  <si>
+    <t>punjabi_857</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CTrAss7NJuc</t>
+  </si>
+  <si>
+    <t>punjabi_856</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TdS9uWKi14k</t>
+  </si>
+  <si>
+    <t>punjabi_855</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WdLS_r6OeeI</t>
+  </si>
+  <si>
+    <t>punjabi_854</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l7DZ1dtDlNU</t>
+  </si>
+  <si>
+    <t>punjabi_853</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-N0kjJPfK2Y</t>
+  </si>
+  <si>
+    <t>punjabi_852</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vbv4UQKlr8I</t>
+  </si>
+  <si>
+    <t>punjabi_851</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dTx7MH52mNw</t>
+  </si>
+  <si>
+    <t>punjabi_850</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fPz3K5NEZQg</t>
+  </si>
+  <si>
+    <t>punjabi_849</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KoqfDZaQYfM</t>
+  </si>
+  <si>
+    <t>punjabi_848</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QV55KOeyev0</t>
+  </si>
+  <si>
+    <t>punjabi_847</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcfr1FrPpUM</t>
+  </si>
+  <si>
+    <t>punjabi_846</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N2C6W2LqqaM</t>
+  </si>
+  <si>
+    <t>punjabi_845</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Es5FQ7omguc</t>
+  </si>
+  <si>
+    <t>punjabi_844</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bt-o3E4RpuE</t>
+  </si>
+  <si>
+    <t>punjabi_843</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NhjOkUCx4Jc</t>
+  </si>
+  <si>
+    <t>punjabi_842</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=71fWDqPCEqw</t>
+  </si>
+  <si>
+    <t>punjabi_841</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gzHoDgCNyZY</t>
+  </si>
+  <si>
+    <t>punjabi_840</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AJYQatcznYE</t>
+  </si>
+  <si>
+    <t>punjabi_839</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ELSIVqxBiYA</t>
+  </si>
+  <si>
+    <t>punjabi_838</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5Yc8y52Tses</t>
+  </si>
+  <si>
+    <t>punjabi_837</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xe4eddQ8Y9k</t>
+  </si>
+  <si>
+    <t>punjabi_836</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=37khIAq2Z6g</t>
+  </si>
+  <si>
+    <t>punjabi_835</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zzbbRXPijaw</t>
+  </si>
+  <si>
+    <t>punjabi_834</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2Ovqetypn6s</t>
+  </si>
+  <si>
+    <t>punjabi_833</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=58GJpUvWww4</t>
+  </si>
+  <si>
+    <t>punjabi_832</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eW-twj9hK8Q</t>
+  </si>
+  <si>
+    <t>punjabi_831</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lxSsKkIj4ss</t>
+  </si>
+  <si>
+    <t>punjabi_830</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=syHvlSeLvQM</t>
+  </si>
+  <si>
+    <t>punjabi_829</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NFyKMwpWFtQ</t>
+  </si>
+  <si>
+    <t>punjabi_828</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F17f-wJC98Q</t>
+  </si>
+  <si>
+    <t>punjabi_827</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8UzhdHPzbWU</t>
+  </si>
+  <si>
+    <t>punjabi_826</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=STNUwDCe3zw</t>
+  </si>
+  <si>
+    <t>punjabi_825</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nVDP7heDilA</t>
+  </si>
+  <si>
+    <t>punjabi_824</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DqAA265CfPo</t>
+  </si>
+  <si>
+    <t>punjabi_823</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=unW1lPFzHLI</t>
+  </si>
+  <si>
+    <t>punjabi_822</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N7AKx3CG-cY</t>
+  </si>
+  <si>
+    <t>punjabi_821</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Rh98ptVWrG0</t>
+  </si>
+  <si>
+    <t>punjabi_820</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJ35KMPZ-6M</t>
+  </si>
+  <si>
+    <t>punjabi_819</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m9M7mHSsibw</t>
+  </si>
+  <si>
+    <t>punjabi_818</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UlvzfuUDGKU</t>
+  </si>
+  <si>
+    <t>punjabi_817</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H5FsmVARXYw</t>
+  </si>
+  <si>
+    <t>punjabi_816</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ie_p6SyY-U4</t>
+  </si>
+  <si>
+    <t>punjabi_815</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GoUpegZpzEE</t>
+  </si>
+  <si>
+    <t>punjabi_814</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PurmJfERPzQ</t>
+  </si>
+  <si>
+    <t>punjabi_813</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EAeowK0Rl3E</t>
+  </si>
+  <si>
+    <t>punjabi_812</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kgFgI1QnWY8</t>
+  </si>
+  <si>
+    <t>punjabi_811</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aDUAFlx7v7o</t>
+  </si>
+  <si>
+    <t>punjabi_810</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OcpQ97Wnj2o</t>
+  </si>
+  <si>
+    <t>punjabi_809</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SygD79rNcDU</t>
+  </si>
+  <si>
+    <t>punjabi_808</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2vIDtqvl2Fg</t>
+  </si>
+  <si>
+    <t>punjabi_807</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yWWE6hbwn4U</t>
+  </si>
+  <si>
+    <t>punjabi_806</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cDwU3OrXLkI</t>
+  </si>
+  <si>
+    <t>punjabi_805</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ar5N5DpEfUA</t>
+  </si>
+  <si>
+    <t>punjabi_804</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TO7HXg8wPUI</t>
+  </si>
+  <si>
+    <t>punjabi_803</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6zc8WuMNPd8</t>
+  </si>
+  <si>
+    <t>punjabi_802</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Is1Zcu1rgT0</t>
+  </si>
+  <si>
+    <t>punjabi_801</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j6xABShtRbk</t>
+  </si>
+  <si>
+    <t>punjabi_800</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H5ZgaBR32aM</t>
+  </si>
+  <si>
+    <t>punjabi_799</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yJdgui_BA4Y</t>
+  </si>
+  <si>
+    <t>punjabi_798</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WfkY7JcEAmA</t>
+  </si>
+  <si>
+    <t>punjabi_797</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A5fuzMLmu8g</t>
+  </si>
+  <si>
+    <t>punjabi_796</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WSq2sKm1CY8</t>
+  </si>
+  <si>
+    <t>punjabi_795</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vq7kU0pWIjY</t>
+  </si>
+  <si>
+    <t>punjabi_794</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N-8Vcm80qnY</t>
+  </si>
+  <si>
+    <t>punjabi_793</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lExLkWtKOus</t>
+  </si>
+  <si>
+    <t>punjabi_792</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hR4hJTyoltI</t>
+  </si>
+  <si>
+    <t>punjabi_791</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SPlfvS8daOA</t>
+  </si>
+  <si>
+    <t>punjabi_790</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vmgIDijGvcI</t>
+  </si>
+  <si>
+    <t>punjabi_789</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DeWDX6IvaKs</t>
+  </si>
+  <si>
+    <t>punjabi_788</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VJa8pmSNwls</t>
+  </si>
+  <si>
+    <t>punjabi_787</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=COoFCpONmoc</t>
+  </si>
+  <si>
+    <t>punjabi_786</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cfXDjWo7fXI</t>
+  </si>
+  <si>
+    <t>punjabi_785</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E86gjd7vtdA</t>
+  </si>
+  <si>
+    <t>punjabi_784</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=89aZWf8qhGk</t>
+  </si>
+  <si>
+    <t>punjabi_783</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RMfmC87ZvU4</t>
+  </si>
+  <si>
+    <t>punjabi_782</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jBZml-Kai2A</t>
+  </si>
+  <si>
+    <t>punjabi_781</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nfpBheHvPEs</t>
+  </si>
+  <si>
+    <t>punjabi_910</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JUwRBRmrsIo</t>
+  </si>
+  <si>
+    <t>punjabi_909</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WXarPkbjDcY</t>
+  </si>
+  <si>
+    <t>punjabi_908</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cyl_wfblTnw</t>
+  </si>
+  <si>
+    <t>punjabi_907</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PaTTXxmdWRg</t>
+  </si>
+  <si>
+    <t>punjabi_906</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lTEbAK50k7w</t>
+  </si>
+  <si>
+    <t>punjabi_905</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i71xUnpN5zY</t>
+  </si>
+  <si>
+    <t>punjabi_904</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PGIjmmPnc2s</t>
+  </si>
+  <si>
+    <t>punjabi_903</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gygx46l5cUk</t>
+  </si>
+  <si>
+    <t>punjabi_902</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ISzT97WsKbk</t>
+  </si>
+  <si>
+    <t>punjabi_901</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JKXMpZh0RHY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RREJHDDuB5A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N8-lhLcSKog</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7AP52YuQ4dw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jdbq1XM7wAc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0osKDeGmTv8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ED_O8s_3USE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eTxU_KIl8Og</t>
+  </si>
+  <si>
+    <t>punjabi_990</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TBwhRf5K5R8</t>
+  </si>
+  <si>
+    <t>punjabi_989</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uYdiqxF8TMQ</t>
+  </si>
+  <si>
+    <t>punjabi_988</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X1w64ce6r7A</t>
+  </si>
+  <si>
+    <t>punjabi_987</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bwy-rk7Dr08</t>
+  </si>
+  <si>
+    <t>punjabi_986</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J4ojPnw0SJA</t>
+  </si>
+  <si>
+    <t>punjabi_985</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c58x0Sc3iew</t>
+  </si>
+  <si>
+    <t>punjabi_984</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aKL3r3G-8k8</t>
+  </si>
+  <si>
+    <t>punjabi_983</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6R3lf5q8mZ0</t>
+  </si>
+  <si>
+    <t>punjabi_982</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ecEzrmoDzU4</t>
+  </si>
+  <si>
+    <t>punjabi_981</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8gBF3esL5ug</t>
+  </si>
+  <si>
+    <t>punjabi_980</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AlXnQ8flXLo</t>
+  </si>
+  <si>
+    <t>punjabi_979</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-r7lblUQ7Ao</t>
+  </si>
+  <si>
+    <t>punjabi_978</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KwoZI4H_GA0</t>
+  </si>
+  <si>
+    <t>punjabi_977</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kHKvX-o4f_I</t>
+  </si>
+  <si>
+    <t>punjabi_976</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lFsqLwbzxis</t>
+  </si>
+  <si>
+    <t>punjabi_975</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q6zld6gTBJk</t>
+  </si>
+  <si>
+    <t>punjabi_974</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wNn-bguZ0d4</t>
+  </si>
+  <si>
+    <t>punjabi_973</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gEWJeOaafR4</t>
+  </si>
+  <si>
+    <t>punjabi_972</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MEMQ-o-rKVU</t>
+  </si>
+  <si>
+    <t>punjabi_971</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=boHGJoADJ0I</t>
+  </si>
+  <si>
+    <t>punjabi_970</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l2NOuaH9e68</t>
+  </si>
+  <si>
+    <t>punjabi_969</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MgTbyAzBpvQ</t>
+  </si>
+  <si>
+    <t>punjabi_968</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8etGuKXqLQw</t>
+  </si>
+  <si>
+    <t>punjabi_967</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3VLr1XEZOx8</t>
+  </si>
+  <si>
+    <t>punjabi_966</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wEhwy7EGzi0</t>
+  </si>
+  <si>
+    <t>punjabi_965</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q2i0GymhHe8</t>
+  </si>
+  <si>
+    <t>punjabi_964</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vJ32_4QpmNY</t>
+  </si>
+  <si>
+    <t>punjabi_963</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CIo_g7sI9tY</t>
+  </si>
+  <si>
+    <t>punjabi_962</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nrogdgWJUiI</t>
+  </si>
+  <si>
+    <t>punjabi_961</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iRYrm8WI5Hc</t>
+  </si>
+  <si>
+    <t>punjabi_960</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FNJJf8nHT-I</t>
+  </si>
+  <si>
+    <t>punjabi_959</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=00UV0JY_r5Q</t>
+  </si>
+  <si>
+    <t>punjabi_958</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p-nnBOUgmDU</t>
+  </si>
+  <si>
+    <t>punjabi_957</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tErf57crWDU</t>
+  </si>
+  <si>
+    <t>punjabi_956</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=auaLhV5HXsg</t>
+  </si>
+  <si>
+    <t>punjabi_955</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fzslNxt1g8k</t>
+  </si>
+  <si>
+    <t>punjabi_954</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=swHuJGQvvIo</t>
+  </si>
+  <si>
+    <t>punjabi_953</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6bCK0epKW_Q</t>
+  </si>
+  <si>
+    <t>punjabi_952</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CfjPvWVNtl4</t>
+  </si>
+  <si>
+    <t>punjabi_951</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qporRAEtrmo</t>
+  </si>
+  <si>
+    <t>punjabi_950</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RWg-30LalRw</t>
+  </si>
+  <si>
+    <t>punjabi_949</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GSC_LavYhIs</t>
+  </si>
+  <si>
+    <t>punjabi_948</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qbywZGRLUsQ</t>
+  </si>
+  <si>
+    <t>punjabi_947</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9aCDgmNQdY</t>
+  </si>
+  <si>
+    <t>punjabi_946</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hvLbIXYKP90</t>
+  </si>
+  <si>
+    <t>punjabi_945</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJYoXFukHk8</t>
+  </si>
+  <si>
+    <t>punjabi_944</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FESBXU506wc</t>
+  </si>
+  <si>
+    <t>punjabi_943</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Nvcfoefc6yU</t>
+  </si>
+  <si>
+    <t>punjabi_942</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d9DcnwBjAWo</t>
+  </si>
+  <si>
+    <t>punjabi_941</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RkY59C5HwHQ</t>
+  </si>
+  <si>
+    <t>punjabi_940</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V_DNol1j7Io</t>
+  </si>
+  <si>
+    <t>punjabi_939</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7HN-FFBNBQw</t>
+  </si>
+  <si>
+    <t>punjabi_938</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9C917IlHtBA</t>
+  </si>
+  <si>
+    <t>punjabi_937</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4B0xuHDIAYw</t>
+  </si>
+  <si>
+    <t>punjabi_936</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GeLNXU-4CLU</t>
+  </si>
+  <si>
+    <t>punjabi_935</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dw8ke-3KkQU</t>
+  </si>
+  <si>
+    <t>punjabi_934</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lQPqvGiMsus</t>
+  </si>
+  <si>
+    <t>punjabi_933</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_DgL5ekg_f4</t>
+  </si>
+  <si>
+    <t>punjabi_932</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kRdCEx4i9Zo</t>
+  </si>
+  <si>
+    <t>punjabi_931</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FLbkDhpGCkw</t>
+  </si>
+  <si>
+    <t>punjabi_930</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Je0udQXrJr8</t>
+  </si>
+  <si>
+    <t>punjabi_929</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wxtivhDmWQM</t>
+  </si>
+  <si>
+    <t>punjabi_928</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j7oVl7nnWjo</t>
+  </si>
+  <si>
+    <t>punjabi_927</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aC6-_GHgMTI</t>
+  </si>
+  <si>
+    <t>punjabi_926</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=htNlT8pQ9HM</t>
+  </si>
+  <si>
+    <t>punjabi_925</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kxmjDHzNjuc</t>
+  </si>
+  <si>
+    <t>punjabi_924</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AtgMirrP5eE</t>
+  </si>
+  <si>
+    <t>punjabi_923</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vc4mh5xygqU</t>
+  </si>
+  <si>
+    <t>punjabi_922</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xlY-0YaeImk</t>
+  </si>
+  <si>
+    <t>punjabi_921</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hr-AB2jiwdo</t>
+  </si>
+  <si>
+    <t>punjabi_920</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U7-5Q8Rd8sQ</t>
+  </si>
+  <si>
+    <t>punjabi_919</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DxQ3bY2Zjbg</t>
+  </si>
+  <si>
+    <t>punjabi_918</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UFFr8L594SI</t>
+  </si>
+  <si>
+    <t>punjabi_917</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MbYhwNzH6dQ</t>
+  </si>
+  <si>
+    <t>punjabi_916</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3HbYrcsGZlc</t>
+  </si>
+  <si>
+    <t>punjabi_915</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TPlFifVII00</t>
+  </si>
+  <si>
+    <t>punjabi_914</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zH0D0n6_jw4</t>
+  </si>
+  <si>
+    <t>punjabi_913</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6QGxPaxiDwg</t>
+  </si>
+  <si>
+    <t>punjabi_912</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pg-GhXks0vo</t>
+  </si>
+  <si>
+    <t>punjabi_911</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ApFRKuOcP0g</t>
+  </si>
+  <si>
+    <t>punjabi_991</t>
+  </si>
+  <si>
+    <t>punjabi_992</t>
+  </si>
+  <si>
+    <t>punjabi_993</t>
+  </si>
+  <si>
+    <t>punjabi_994</t>
+  </si>
+  <si>
+    <t>punjabi_995</t>
+  </si>
+  <si>
+    <t>punjabi_996</t>
+  </si>
+  <si>
+    <t>punjabi_997</t>
+  </si>
+  <si>
+    <t>punjabi_998</t>
+  </si>
+  <si>
+    <t>punjabi_999</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2VVb3usovJk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D00Bl80P8mQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hsG3Ey6AEio</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eAUl2mTRS5M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zkqDXz2QvIY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lAgfc00ke84</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hAfexH9XTik</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fUFtc7DV-PE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkN_zpMaAnE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wx3AfKIKTgk</t>
+  </si>
+  <si>
+    <t>punjabi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3570,6 +6111,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3914,10 +6461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B596"/>
+  <dimension ref="A1:B1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
-      <selection activeCell="B583" sqref="B583"/>
+    <sheetView tabSelected="1" topLeftCell="A973" workbookViewId="0">
+      <selection activeCell="B1004" sqref="B1004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8584,78 +11131,3485 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>1023</v>
+        <v>1576</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>1024</v>
+        <v>1574</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>1025</v>
+        <v>1572</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>1026</v>
+        <v>1570</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>1027</v>
+        <v>1568</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1567</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>1028</v>
+        <v>1566</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>1029</v>
+        <v>1564</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>1030</v>
+        <v>1562</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>1031</v>
+        <v>1560</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B913" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B914" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A966" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A973" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A974" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A978" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A980" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A981" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A982" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A983" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A984" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A985" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A990" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A991" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B993" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B994" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B995" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B996" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B997" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B998" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B999" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A593" t="s">
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A594" t="s">
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A595" t="s">
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A596" t="s">
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
         <v>1129</v>
       </c>
     </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>1614</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B594">
-    <sortCondition ref="B2:B594"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1015">
+    <sortCondition ref="B2:B1015"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A625" r:id="rId1" xr:uid="{ED5F106B-FA66-7448-B6B2-713A9FF0F157}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>